--- a/S.W.E.A.P/Resources/Exported_file/peter_loan_Schedule.xlsx
+++ b/S.W.E.A.P/Resources/Exported_file/peter_loan_Schedule.xlsx
@@ -80,34 +80,34 @@
     <t>Ending balance</t>
   </si>
   <si>
-    <t>6/14/2023 12:00:00 AM</t>
-  </si>
-  <si>
-    <t>7/14/2023 12:00:00 AM</t>
-  </si>
-  <si>
-    <t>8/14/2023 12:00:00 AM</t>
-  </si>
-  <si>
-    <t>9/14/2023 12:00:00 AM</t>
-  </si>
-  <si>
-    <t>10/14/2023 12:00:00 AM</t>
-  </si>
-  <si>
-    <t>11/14/2023 12:00:00 AM</t>
-  </si>
-  <si>
-    <t>12/14/2023 12:00:00 AM</t>
-  </si>
-  <si>
-    <t>1/14/2024 12:00:00 AM</t>
-  </si>
-  <si>
-    <t>2/14/2024 12:00:00 AM</t>
-  </si>
-  <si>
-    <t>3/14/2024 12:00:00 AM</t>
+    <t>14/06/2023 00:00:00</t>
+  </si>
+  <si>
+    <t>14/07/2023 00:00:00</t>
+  </si>
+  <si>
+    <t>14/08/2023 00:00:00</t>
+  </si>
+  <si>
+    <t>14/09/2023 00:00:00</t>
+  </si>
+  <si>
+    <t>14/10/2023 00:00:00</t>
+  </si>
+  <si>
+    <t>14/11/2023 00:00:00</t>
+  </si>
+  <si>
+    <t>14/12/2023 00:00:00</t>
+  </si>
+  <si>
+    <t>14/01/2024 00:00:00</t>
+  </si>
+  <si>
+    <t>14/02/2024 00:00:00</t>
+  </si>
+  <si>
+    <t>14/03/2024 00:00:00</t>
   </si>
 </sst>
 </file>
